--- a/biology/Médecine/Johannes_Opsopoeus/Johannes_Opsopoeus.xlsx
+++ b/biology/Médecine/Johannes_Opsopoeus/Johannes_Opsopoeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Opsopoeus ou  Jean Opsopœus est un érudit et médecin allemand, né à Bretten le 25 juin 1556 et mort à Heidelberg le 23 septembre 1596.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses opinions religieuses (il était calviniste) l'ayant contraint d'abandonner une chaire qu'il occupait à Heidelberg, il se rendit à Francfort, où il entra, comme correcteur, dans l'imprimerie d'André Wechel, passa de là à Paris. Il y étudia la médecine et la philosophie, et fut incarcéré à deux reprises pour s'être exprimé avec une extrême liberté sur des matières religieuses. Il parcourut ensuite l'Angleterre et les Pays-Bas et se fixa enfin à Heidelberg, où il enseigna la physique et la botanique.
 </t>
@@ -542,12 +556,14 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De partibus corporis humani (Heidelberg, 1595, in-4)
 Oracula metrica Jovis, Apollonis, Hecates, Serapidis, etc. (Paris, 1599, in-8°)
 Oracula magica Zoroastris (Paris, 1599, in-8°)
-Sibyllina oracula, 1599, in-8[1].</t>
+Sibyllina oracula, 1599, in-8.</t>
         </is>
       </c>
     </row>
